--- a/Docs/UserStory.xlsx
+++ b/Docs/UserStory.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgC78nlZNITXoubMSFxuFV/K9Xz1g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cs3sQ0bqEEHAf0bAhqfB3AS+EqO0VGnVe09QF4muVwU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Histórias de usuários de Ágil</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Usuario Admin</t>
   </si>
   <si>
-    <t>Gerenciar Usuarios</t>
+    <t>Gerenciar Usuarios para que o poder de alteração/remoção/adicionar esteja centrado em uma conta e não tenha como outros usuários acessá-las, os usuarios precisam ter nome, email, login, senha, o tipo de acesso e no caso de um usuario comum  ter um gestor relacionado e sendo gestor ter um e-mail</t>
   </si>
   <si>
     <t>Gerenciar os acessos do SIstema</t>
@@ -62,31 +62,31 @@
     <t>Gestor</t>
   </si>
   <si>
-    <t>Puxar Relatórios de consumo  suprimentos</t>
-  </si>
-  <si>
-    <t>Saber a quantidade gasta de aguá e pesticida</t>
-  </si>
-  <si>
-    <t>Validar as Rotinas de Irrigação</t>
+    <t>Puxar Relatórios de consumo e suprimentos onde conste os dados de consumo, tanto de agua quanto de pesticidae o tempo de ciclo das plantaçoes</t>
+  </si>
+  <si>
+    <t>Saber a quantidade gasta de aguá, pesticida e saber o quanto ainda irá gastar</t>
+  </si>
+  <si>
+    <t>Validar as Rotinas de Irrigação, recendo uma notificação por e-mail assim que uma nova rotina for cadastrada pelo usuario, contendo todos os dados dela</t>
   </si>
   <si>
     <t>Garatir que não haja cadastros feitos incorretamente</t>
   </si>
   <si>
-    <t>Cadastrar as areas de plantação</t>
+    <t>Cadastrar as areas de plantação, com o perimetro total ocupado pela plantação, o nome e identificador dela, a a cultura que esta sendo plantada, quantidade de aguá necessaria por ano, o terreno que irá se localizar, o ciclo de duração da plantação</t>
   </si>
   <si>
     <t>Mapear cada area que irá receber uma plantação e irá utilizar de irrigação</t>
   </si>
   <si>
-    <t>Desativar Rotinas de Irrigação</t>
+    <t>Desativar Rotinas de Irrigação, quando a mesma não se fizer mais necessaria</t>
   </si>
   <si>
     <t>Para quando a rotina não estiver em uso poder pausar a mesma no sistema</t>
   </si>
   <si>
-    <t>Cadastrar  Area total da plantação</t>
+    <t>Cadastrar  Area do Terreno, tendo em vista seu nome, identificador, região area e quais plantaçoes  estarão neste Terreno</t>
   </si>
   <si>
     <t xml:space="preserve">Para saber a area total do terreno e poder subtividades em partes menores que de </t>
@@ -95,19 +95,19 @@
     <t>Usuario Comum</t>
   </si>
   <si>
-    <t>Cadastrar rotinas de irrigação</t>
+    <t>Cadastrar rotinas de irrigação, com o nome, o identificador, para qual plantação a rotina será utilizada, ferquencia de irrigação, status de aprovação e ativação e informando se havera a utilização de pesticida</t>
   </si>
   <si>
     <t>Inserir o tipo de plantação e quantidade de água necessaria para irrigação</t>
   </si>
   <si>
-    <t>Editar rotinas de irrigação que não foram aprovadas</t>
+    <t xml:space="preserve">Editar rotinas de irrigação que não foram aprovadas, ajustando que for necessario para que a rotina seja aprovada e executada de acordo com as definiçoes do gestor </t>
   </si>
   <si>
     <t>Para poder realizar os ajustes necessarios para aprovação</t>
   </si>
   <si>
-    <t>Ativar Rotina de Irrigação</t>
+    <t>Ativar Rotina de Irrigação que já estejam aprovadas pelo gestor para que sua execução seja iniciada e a irrigação passe a ser feita</t>
   </si>
   <si>
     <t>Poder deixar as rotinas funcionando após a validação</t>
@@ -116,22 +116,28 @@
     <t>Sistema</t>
   </si>
   <si>
-    <t>Executar rotinas de irrigação</t>
+    <t>Executar rotinas de irrigação, identificando as rotinas já aprovadas e ativas e executa-las para irrigar as plantaçoes, automaticamente levando em consideração a frequencia e oo coeficiente de cultura</t>
   </si>
   <si>
     <t>Manter as plantaçoes regadas</t>
   </si>
   <si>
-    <t>Notificar ao Gestor quando está saindo do periodo de alguma plantação</t>
+    <t>Notificar ao Gestor quando está saindo do periodo de alguma plantação, utilizando uma api para o envio de e-mail asempre que o ciclo de uma plantação estiver chegando ao fim, quando a plantação atingir o ciclo de maturidade necessario para a colheita</t>
   </si>
   <si>
     <t>Para poder desativar a rotina</t>
   </si>
   <si>
-    <t>Notificar ao Gestor quando uma nova rotina for cadastrada</t>
+    <t>Notificar ao Gestor quando uma nova rotina for cadastrada, utilizando uma api para sempre que uma nova rotina for cadastrada o gestor fique ciente que deve aprovar ou rejeitar a rotina</t>
   </si>
   <si>
     <t>Para o gestor poder validar</t>
+  </si>
+  <si>
+    <t>Calcular o consumo de agua que a plantação necessita em cada fase de desenvolvimento, através do calculo de Kc, o coeficiente de cultura através de uma api, que receba a plantação, e a região e faça o calculo da quantidade de de agua para cada fase de maturidade de plantação</t>
+  </si>
+  <si>
+    <t>Para que o calculo da quantidade de agua por ano seja precisa e nãp haja desperdicio ou falta de agua durante o ciclo da plantação</t>
   </si>
   <si>
     <t>Monitore as Histárias de Usuários de Ágil no Smartsheet</t>
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -273,16 +279,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,7 +323,7 @@
     <xdr:ext cx="2181225" cy="400050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -342,7 +351,7 @@
     <xdr:ext cx="15506700" cy="2895600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -567,12 +576,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.22"/>
-    <col customWidth="1" min="2" max="2" width="37.22"/>
-    <col customWidth="1" min="3" max="3" width="47.33"/>
+    <col customWidth="1" min="1" max="1" width="23.67"/>
+    <col customWidth="1" min="2" max="2" width="15.56"/>
+    <col customWidth="1" min="3" max="3" width="58.0"/>
     <col customWidth="1" min="4" max="4" width="48.22"/>
     <col customWidth="1" min="5" max="5" width="44.44"/>
-    <col customWidth="1" min="6" max="6" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -589,7 +597,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,17 +663,17 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1"/>
@@ -677,17 +685,17 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" ht="21.75" customHeight="1">
+    <row r="7" ht="27.75" customHeight="1">
       <c r="A7" s="5">
         <v>2.0</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1"/>
@@ -699,17 +707,17 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" ht="21.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="5">
         <v>3.0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1"/>
@@ -721,17 +729,17 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6">
+    <row r="9">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
@@ -743,17 +751,17 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6">
+    <row r="10">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1"/>
@@ -765,17 +773,17 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" s="6">
+    <row r="11">
+      <c r="A11" s="5">
         <v>6.0</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="1"/>
@@ -787,17 +795,17 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" s="6">
+    <row r="12">
+      <c r="A12" s="5">
         <v>7.0</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1"/>
@@ -809,17 +817,17 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6">
+    <row r="13">
+      <c r="A13" s="5">
         <v>8.0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1"/>
@@ -831,17 +839,17 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6">
+    <row r="14">
+      <c r="A14" s="5">
         <v>9.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="1"/>
@@ -853,17 +861,17 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" s="6">
+    <row r="15">
+      <c r="A15" s="5">
         <v>10.0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1"/>
@@ -875,17 +883,17 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" s="6">
+    <row r="16">
+      <c r="A16" s="5">
         <v>11.0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="1"/>
@@ -897,17 +905,17 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" s="6">
+    <row r="17">
+      <c r="A17" s="5">
         <v>12.0</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="1"/>
@@ -919,11 +927,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1074,13 +1090,13 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1090,8 +1106,8 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1101,8 +1117,8 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1112,8 +1128,8 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1123,11 +1139,11 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
